--- a/StructureDefinition-hemorrhagic-stroke-bleeding-reason-ext.xlsx
+++ b/StructureDefinition-hemorrhagic-stroke-bleeding-reason-ext.xlsx
@@ -84,7 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Captures, as a CodeableConcept bound (required) to HemorrhagicStrokeBleedingReasonVS, the identified cause of intracranial bleeding in hemorrhagic stroke (e.g., aneurysm, vascular malformation, other). Use when coding a definitive hemorrhagic stroke Condition to support analytics and decision support; do not use for non-hemorrhagic etiologies or when the cause is unknown/undetermined.</t>
+    <t>Extension capturing the **identified cause of intracranial bleeding** in a hemorrhagic stroke.
+**Primary use-case**
+- Attach to a definitive hemorrhagic stroke Condition (`StrokeDiagnosisConditionProfile`) to support:
+  - etiologic stratification (aneurysm vs vascular malformation vs other),
+  - analytics and registry reporting,
+  - targeted clinical decision support pathways.
+**FHIR placement**
+- `Condition.extension[bleedingReason].valueCodeableConcept` (required binding to HemorrhagicStrokeBleedingReasonVS).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-hemorrhagic-stroke-bleeding-reason-ext.xlsx
+++ b/StructureDefinition-hemorrhagic-stroke-bleeding-reason-ext.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
